--- a/Java eduPlan.xlsx
+++ b/Java eduPlan.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD031E8-E37F-408C-AE34-4AF8D33EA5B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="набросок" sheetId="1" r:id="rId1"/>
+    <sheet name="план" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,12 +17,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>Java Core</t>
   </si>
@@ -164,12 +165,120 @@
   <si>
     <t xml:space="preserve">Битбакет
 </t>
+  </si>
+  <si>
+    <t>Головач Java Junior 2014 февраль</t>
+  </si>
+  <si>
+    <t>Головач Java Junior 2013 февраль</t>
+  </si>
+  <si>
+    <t>Головач JavaCoreDecember2013 февраль</t>
+  </si>
+  <si>
+    <t>Головач JavaCoreOctober2013 февраль</t>
+  </si>
+  <si>
+    <t>Доп</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>Patterns</t>
+  </si>
+  <si>
+    <t>Процедурная java</t>
+  </si>
+  <si>
+    <t>FinePoints</t>
+  </si>
+  <si>
+    <t>DB and SQL</t>
+  </si>
+  <si>
+    <t>JavaCore</t>
+  </si>
+  <si>
+    <t>Java Junior</t>
+  </si>
+  <si>
+    <t>Servlets</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>BiteOperations</t>
+  </si>
+  <si>
+    <t>IO/serializatio</t>
+  </si>
+  <si>
+    <t>Servlets/http/WebSocket</t>
+  </si>
+  <si>
+    <t>Log4j</t>
+  </si>
+  <si>
+    <t>CodeConventions</t>
+  </si>
+  <si>
+    <t>reflection</t>
+  </si>
+  <si>
+    <t>TDD</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>JDBC/JPA</t>
+  </si>
+  <si>
+    <t>MultiThreading</t>
+  </si>
+  <si>
+    <t>JSF/JSP</t>
+  </si>
+  <si>
+    <t>OOD</t>
+  </si>
+  <si>
+    <t>DI/IoC</t>
+  </si>
+  <si>
+    <t>OOP</t>
+  </si>
+  <si>
+    <t>GOF Patterns</t>
+  </si>
+  <si>
+    <t>Java 8</t>
+  </si>
+  <si>
+    <t>JSF</t>
+  </si>
+  <si>
+    <t>WebSocket</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>REST Api</t>
+  </si>
+  <si>
+    <t>JPA Hibernate</t>
+  </si>
+  <si>
+    <t>Spring MVC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -305,6 +414,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -314,6 +431,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -362,7 +482,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,9 +515,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,6 +567,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -605,11 +759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,19 +1070,418 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="K1" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Java eduPlan.xlsx
+++ b/Java eduPlan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD031E8-E37F-408C-AE34-4AF8D33EA5B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3AA6C7-0C7E-4F9E-947D-ED2043BFCE2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="1935" windowWidth="19620" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="набросок" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>Java Core</t>
   </si>
@@ -273,6 +273,48 @@
   </si>
   <si>
     <t>Spring MVC</t>
+  </si>
+  <si>
+    <t>Pl/sql</t>
+  </si>
+  <si>
+    <t>Философи Java</t>
+  </si>
+  <si>
+    <t>oop 1,2,7,8,9</t>
+  </si>
+  <si>
+    <t>procedural 3-6, 10</t>
+  </si>
+  <si>
+    <t>11 Collections (17 - подробнее о контейнерах)</t>
+  </si>
+  <si>
+    <t>12 Exception</t>
+  </si>
+  <si>
+    <t>13 String</t>
+  </si>
+  <si>
+    <t>?? 14-15 Информация о типах</t>
+  </si>
+  <si>
+    <t>16 Массивы</t>
+  </si>
+  <si>
+    <t>18 IO</t>
+  </si>
+  <si>
+    <t>19 Enum</t>
+  </si>
+  <si>
+    <t>20 Аннотации</t>
+  </si>
+  <si>
+    <t>21 Multithreading</t>
+  </si>
+  <si>
+    <t>22 GUI</t>
   </si>
 </sst>
 </file>
@@ -322,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -380,11 +422,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -415,13 +537,46 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1073,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,28 +1243,31 @@
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="15" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="K1" s="12" t="s">
+      <c r="H1" s="18"/>
+      <c r="J1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1126,25 +1284,28 @@
       <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="19">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="20">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1161,17 +1322,23 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="19">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="20">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="21" t="s">
         <v>54</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
       </c>
       <c r="O3" t="s">
         <v>55</v>
@@ -1183,35 +1350,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:20" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="25">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="26">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="27">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="O4" t="s">
+      <c r="J4" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="25" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1228,17 +1398,20 @@
       <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="19">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="20">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="21" t="s">
         <v>47</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -1260,17 +1433,20 @@
       <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="19">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="20">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="21" t="s">
         <v>53</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="O6" t="s">
         <v>61</v>
@@ -1279,7 +1455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1292,17 +1468,20 @@
       <c r="D7" t="s">
         <v>66</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="19">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="20">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="21" t="s">
         <v>10</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="O7" t="s">
         <v>63</v>
@@ -1321,14 +1500,18 @@
       <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="19">
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="21" t="s">
         <v>63</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="O8" t="s">
         <v>69</v>
@@ -1347,14 +1530,18 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="19">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="21" t="s">
         <v>61</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1370,14 +1557,18 @@
       <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="19">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="21" t="s">
         <v>67</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1393,11 +1584,16 @@
       <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="19">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20">
         <v>10</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="J11" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1413,14 +1609,19 @@
       <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="19">
         <v>11</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H12" s="21"/>
+      <c r="J12" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1433,41 +1634,46 @@
       <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="22">
         <v>12</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="23"/>
+      <c r="G13" s="23">
         <v>12</v>
       </c>
+      <c r="H13" s="24"/>
+      <c r="J13" s="15" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M14" s="14"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N16" s="14"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="N19" s="14"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Java eduPlan.xlsx
+++ b/Java eduPlan.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3AA6C7-0C7E-4F9E-947D-ED2043BFCE2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="1935" windowWidth="19620" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="1995" windowWidth="19620" windowHeight="11220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="набросок" sheetId="1" r:id="rId1"/>
@@ -17,12 +16,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>Java Core</t>
   </si>
@@ -315,12 +314,24 @@
   </si>
   <si>
     <t>22 GUI</t>
+  </si>
+  <si>
+    <t>JooqGenerate</t>
+  </si>
+  <si>
+    <t>Gradle</t>
+  </si>
+  <si>
+    <t>Jankins</t>
+  </si>
+  <si>
+    <t>Docker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -542,19 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -576,6 +575,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,7 +648,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,26 +681,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,23 +716,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -914,11 +891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,11 +1202,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,28 +1220,28 @@
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="14" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="29"/>
+      <c r="J1" s="14" t="s">
         <v>77</v>
       </c>
       <c r="L1" s="11" t="s">
@@ -1284,19 +1261,19 @@
       <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="16">
         <v>1</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>78</v>
       </c>
       <c r="L2" t="s">
@@ -1322,19 +1299,19 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="15">
         <v>2</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="16">
         <v>2</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>79</v>
       </c>
       <c r="L3" t="s">
@@ -1350,38 +1327,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+    <row r="4" spans="1:20" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="21">
         <v>3</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="22">
         <v>3</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="23">
         <v>3</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="L4" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="21" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1398,20 +1378,23 @@
       <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>4</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="16">
         <v>4</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>81</v>
+      </c>
+      <c r="L5" t="s">
+        <v>91</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -1433,20 +1416,23 @@
       <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <v>5</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="16">
         <v>5</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>92</v>
       </c>
       <c r="O6" t="s">
         <v>61</v>
@@ -1468,20 +1454,23 @@
       <c r="D7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="15">
         <v>6</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="16">
         <v>6</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
       </c>
       <c r="O7" t="s">
         <v>63</v>
@@ -1500,17 +1489,17 @@
       <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>7</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16">
         <v>7</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>84</v>
       </c>
       <c r="O8" t="s">
@@ -1530,17 +1519,17 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="15">
         <v>8</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
         <v>8</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1557,17 +1546,17 @@
       <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <v>9</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
         <v>9</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1584,15 +1573,15 @@
       <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="15">
         <v>10</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16">
         <v>10</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="J11" s="15" t="s">
+      <c r="H11" s="17"/>
+      <c r="J11" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1609,15 +1598,15 @@
       <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>11</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
         <v>11</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="J12" s="15" t="s">
+      <c r="H12" s="17"/>
+      <c r="J12" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1634,15 +1623,15 @@
       <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <v>12</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
         <v>12</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="J13" s="15" t="s">
+      <c r="H13" s="20"/>
+      <c r="J13" s="14" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1687,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
